--- a/results/tes_by_yr.xlsx
+++ b/results/tes_by_yr.xlsx
@@ -662,7 +662,7 @@
         <v>-0.02815987891140768</v>
       </c>
       <c r="J6">
-        <v>-2.127779864192179e-05</v>
+        <v>-2.127779864192179E-05</v>
       </c>
       <c r="K6">
         <v>0.05643841949715436</v>
@@ -1012,7 +1012,7 @@
         <v>-0.01781750140856986</v>
       </c>
       <c r="J13">
-        <v>4.355476759304415e-05</v>
+        <v>4.355476759304415E-05</v>
       </c>
       <c r="K13">
         <v>0.06912915424035923</v>
@@ -1403,7 +1403,7 @@
         <v>5.523558290253219</v>
       </c>
       <c r="G21">
-        <v>3.322020087097628e-08</v>
+        <v>3.322020087097628E-08</v>
       </c>
       <c r="H21">
         <v>24.84336396229815</v>
@@ -2153,7 +2153,7 @@
         <v>4.765380167616704</v>
       </c>
       <c r="G36">
-        <v>1.884978995466408e-06</v>
+        <v>1.884978995466408E-06</v>
       </c>
       <c r="H36">
         <v>19.01702012185426</v>
@@ -2203,7 +2203,7 @@
         <v>5.213957628038569</v>
       </c>
       <c r="G37">
-        <v>1.848537091979576e-07</v>
+        <v>1.848537091979576E-07</v>
       </c>
       <c r="H37">
         <v>22.36711267187485</v>
@@ -2403,7 +2403,7 @@
         <v>-4.2071496432659</v>
       </c>
       <c r="G41">
-        <v>2.586119018449897e-05</v>
+        <v>2.586119018449897E-05</v>
       </c>
       <c r="H41">
         <v>15.23885180200472</v>
@@ -2553,7 +2553,7 @@
         <v>4.500856162663431</v>
       </c>
       <c r="G44">
-        <v>6.768029543847674e-06</v>
+        <v>6.768029543847674E-06</v>
       </c>
       <c r="H44">
         <v>17.17283270319056</v>
@@ -2603,7 +2603,7 @@
         <v>-9.971597654719286</v>
       </c>
       <c r="G45">
-        <v>2.029377649819534e-23</v>
+        <v>2.029377649819534E-23</v>
       </c>
       <c r="H45">
         <v>75.38330881912637</v>
@@ -2694,38 +2694,38 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>0.001374507188818777</v>
+        <v>-0.001006716288518488</v>
       </c>
       <c r="E47">
-        <v>0.002175656128339958</v>
+        <v>0.00198696557557148</v>
       </c>
       <c r="F47">
-        <v>0.6317667442545417</v>
+        <v>-0.5066601560165137</v>
       </c>
       <c r="G47">
-        <v>0.5275393072764341</v>
+        <v>0.6123932917667798</v>
       </c>
       <c r="H47">
-        <v>0.922649500972676</v>
+        <v>0.7074696154262232</v>
       </c>
       <c r="I47">
-        <v>-0.002889700465471393</v>
+        <v>-0.004901097255159487</v>
       </c>
       <c r="J47">
-        <v>0.005638714843108948</v>
+        <v>0.00288766467812251</v>
       </c>
       <c r="K47">
-        <v>0.05066537910507327</v>
+        <v>0.02547627748367887</v>
       </c>
       <c r="L47">
-        <v>0.07702369787671917</v>
+        <v>0.02831699634314322</v>
       </c>
       <c r="M47">
-        <v>0.07702369787671917</v>
+        <v>0.02831699634314322</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>IND</t>
         </is>
       </c>
     </row>
@@ -2744,38 +2744,38 @@
         <v>2</v>
       </c>
       <c r="D48">
-        <v>-0.0002215876368160305</v>
+        <v>-0.004239071569187811</v>
       </c>
       <c r="E48">
-        <v>0.002441974685090591</v>
+        <v>0.002308057065999207</v>
       </c>
       <c r="F48">
-        <v>-0.09074116868161153</v>
+        <v>-1.836640710333835</v>
       </c>
       <c r="G48">
-        <v>0.927698257672172</v>
+        <v>0.06626295325066725</v>
       </c>
       <c r="H48">
-        <v>0.1082724629704662</v>
+        <v>3.91565368594612</v>
       </c>
       <c r="I48">
-        <v>-0.005007770070752126</v>
+        <v>-0.008762780292809441</v>
       </c>
       <c r="J48">
-        <v>0.004564594797120066</v>
+        <v>0.0002846371544338198</v>
       </c>
       <c r="K48">
-        <v>0.0563893686367471</v>
+        <v>0.04328939599695948</v>
       </c>
       <c r="L48">
-        <v>0.05029291256568362</v>
+        <v>0.0411473021370839</v>
       </c>
       <c r="M48">
-        <v>0.05029291256568362</v>
+        <v>0.0411473021370839</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>IND</t>
         </is>
       </c>
     </row>
@@ -2794,38 +2794,38 @@
         <v>3</v>
       </c>
       <c r="D49">
-        <v>-0.00317662113034183</v>
+        <v>-0.006335527885628671</v>
       </c>
       <c r="E49">
-        <v>0.002357683001080626</v>
+        <v>0.003561547589223729</v>
       </c>
       <c r="F49">
-        <v>-1.347348701621825</v>
+        <v>-1.778869361397346</v>
       </c>
       <c r="G49">
-        <v>0.1778679537889862</v>
+        <v>0.07526118226228586</v>
       </c>
       <c r="H49">
-        <v>2.491121489140732</v>
+        <v>3.73195023719407</v>
       </c>
       <c r="I49">
-        <v>-0.007797594899422165</v>
+        <v>-0.01331603288973263</v>
       </c>
       <c r="J49">
-        <v>0.001444352638738505</v>
+        <v>0.0006449771184752909</v>
       </c>
       <c r="K49">
-        <v>0.07806286472479482</v>
+        <v>0.06938786025698158</v>
       </c>
       <c r="L49">
-        <v>0.1044116821148795</v>
+        <v>0.06815312684622861</v>
       </c>
       <c r="M49">
-        <v>0.1044116821148795</v>
+        <v>0.06815312684622861</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>IND</t>
         </is>
       </c>
     </row>
@@ -2844,38 +2844,38 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>0.001869549183215328</v>
+        <v>0.001374507188818777</v>
       </c>
       <c r="E50">
-        <v>0.002619643374791475</v>
+        <v>0.002175656128339958</v>
       </c>
       <c r="F50">
-        <v>0.7136655321887641</v>
+        <v>0.6317667442545417</v>
       </c>
       <c r="G50">
-        <v>0.4754340246533938</v>
+        <v>0.5275393072764341</v>
       </c>
       <c r="H50">
-        <v>1.072682940782018</v>
+        <v>0.922649500972676</v>
       </c>
       <c r="I50">
-        <v>-0.003264857483714924</v>
+        <v>-0.002889700465471393</v>
       </c>
       <c r="J50">
-        <v>0.007003955850145581</v>
+        <v>0.005638714843108948</v>
       </c>
       <c r="K50">
-        <v>0.04406966107107104</v>
+        <v>0.05066537910507327</v>
       </c>
       <c r="L50">
-        <v>0.06036930661898569</v>
+        <v>0.07702369787671917</v>
       </c>
       <c r="M50">
-        <v>0.06036930661898569</v>
+        <v>0.07702369787671917</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>KEN</t>
         </is>
       </c>
     </row>
@@ -2894,38 +2894,38 @@
         <v>2</v>
       </c>
       <c r="D51">
-        <v>-2.025791661255554e-05</v>
+        <v>-0.0002215876368160305</v>
       </c>
       <c r="E51">
-        <v>0.005626952484495163</v>
+        <v>0.002441974685090591</v>
       </c>
       <c r="F51">
-        <v>-0.003600157752953379</v>
+        <v>-0.09074116868161153</v>
       </c>
       <c r="G51">
-        <v>0.9971274959176177</v>
+        <v>0.927698257672172</v>
       </c>
       <c r="H51">
-        <v>0.004150110857526302</v>
+        <v>0.1082724629704662</v>
       </c>
       <c r="I51">
-        <v>-0.01104888212894125</v>
+        <v>-0.005007770070752126</v>
       </c>
       <c r="J51">
-        <v>0.01100836629571614</v>
+        <v>0.004564594797120066</v>
       </c>
       <c r="K51">
-        <v>0.07092969797791669</v>
+        <v>0.0563893686367471</v>
       </c>
       <c r="L51">
-        <v>0.138439967316292</v>
+        <v>0.05029291256568362</v>
       </c>
       <c r="M51">
-        <v>0.138439967316292</v>
+        <v>0.05029291256568362</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>KEN</t>
         </is>
       </c>
     </row>
@@ -2944,38 +2944,38 @@
         <v>3</v>
       </c>
       <c r="D52">
-        <v>0.004083518589021843</v>
+        <v>-0.00317662113034183</v>
       </c>
       <c r="E52">
-        <v>0.001649095320683658</v>
+        <v>0.002357683001080626</v>
       </c>
       <c r="F52">
-        <v>2.476217437406199</v>
+        <v>-1.347348701621825</v>
       </c>
       <c r="G52">
-        <v>0.01327826835648019</v>
+        <v>0.1778679537889862</v>
       </c>
       <c r="H52">
-        <v>6.234789175349763</v>
+        <v>2.491121489140732</v>
       </c>
       <c r="I52">
-        <v>0.0008513511534083422</v>
+        <v>-0.007797594899422165</v>
       </c>
       <c r="J52">
-        <v>0.007315686024635344</v>
+        <v>0.001444352638738505</v>
       </c>
       <c r="K52">
-        <v>0.08508656730320825</v>
+        <v>0.07806286472479482</v>
       </c>
       <c r="L52">
-        <v>0.1161618659746514</v>
+        <v>0.1044116821148795</v>
       </c>
       <c r="M52">
-        <v>0.1161618659746514</v>
+        <v>0.1044116821148795</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>KEN</t>
         </is>
       </c>
     </row>
@@ -2994,38 +2994,38 @@
         <v>1</v>
       </c>
       <c r="D53">
-        <v>0.003799195155105634</v>
+        <v>0.001869549183215328</v>
       </c>
       <c r="E53">
-        <v>0.002159304449631656</v>
+        <v>0.002619643374791475</v>
       </c>
       <c r="F53">
-        <v>1.759453214554213</v>
+        <v>0.7136655321887641</v>
       </c>
       <c r="G53">
-        <v>0.07850056015455678</v>
+        <v>0.4754340246533938</v>
       </c>
       <c r="H53">
-        <v>3.671153241129467</v>
+        <v>1.072682940782018</v>
       </c>
       <c r="I53">
-        <v>-0.0004329637978294949</v>
+        <v>-0.003264857483714924</v>
       </c>
       <c r="J53">
-        <v>0.008031354108040763</v>
+        <v>0.007003955850145581</v>
       </c>
       <c r="K53">
-        <v>0.01332140117327121</v>
+        <v>0.04406966107107104</v>
       </c>
       <c r="L53">
-        <v>0.009558923074221553</v>
+        <v>0.06036930661898569</v>
       </c>
       <c r="M53">
-        <v>0.009558923074221553</v>
+        <v>0.06036930661898569</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>KHM</t>
         </is>
       </c>
     </row>
@@ -3044,38 +3044,38 @@
         <v>2</v>
       </c>
       <c r="D54">
-        <v>-0.00433343331808394</v>
+        <v>-2.025791661255554E-05</v>
       </c>
       <c r="E54">
-        <v>0.002954146959318417</v>
+        <v>0.005626952484495163</v>
       </c>
       <c r="F54">
-        <v>-1.466898356026185</v>
+        <v>-0.003600157752953379</v>
       </c>
       <c r="G54">
-        <v>0.1424037078147957</v>
+        <v>0.9971274959176177</v>
       </c>
       <c r="H54">
-        <v>2.811941384142198</v>
+        <v>0.004150110857526302</v>
       </c>
       <c r="I54">
-        <v>-0.01012345496338655</v>
+        <v>-0.01104888212894125</v>
       </c>
       <c r="J54">
-        <v>0.001456588327218669</v>
+        <v>0.01100836629571614</v>
       </c>
       <c r="K54">
-        <v>0.04277777142336474</v>
+        <v>0.07092969797791669</v>
       </c>
       <c r="L54">
-        <v>0.03683833519971529</v>
+        <v>0.138439967316292</v>
       </c>
       <c r="M54">
-        <v>0.03683833519971529</v>
+        <v>0.138439967316292</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>KHM</t>
         </is>
       </c>
     </row>
@@ -3094,38 +3094,38 @@
         <v>3</v>
       </c>
       <c r="D55">
-        <v>-0.005030307360827164</v>
+        <v>0.004083518589021843</v>
       </c>
       <c r="E55">
-        <v>0.004823217924415846</v>
+        <v>0.001649095320683658</v>
       </c>
       <c r="F55">
-        <v>-1.042935948500896</v>
+        <v>2.476217437406199</v>
       </c>
       <c r="G55">
-        <v>0.296977958859838</v>
+        <v>0.01327826835648019</v>
       </c>
       <c r="H55">
-        <v>1.751572233974438</v>
+        <v>6.234789175349763</v>
       </c>
       <c r="I55">
-        <v>-0.01448364078227025</v>
+        <v>0.0008513511534083422</v>
       </c>
       <c r="J55">
-        <v>0.004423026060615925</v>
+        <v>0.007315686024635344</v>
       </c>
       <c r="K55">
-        <v>0.07248475621580654</v>
+        <v>0.08508656730320825</v>
       </c>
       <c r="L55">
-        <v>0.1068883562102403</v>
+        <v>0.1161618659746514</v>
       </c>
       <c r="M55">
-        <v>0.1068883562102403</v>
+        <v>0.1161618659746514</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>KHM</t>
         </is>
       </c>
     </row>
@@ -3144,38 +3144,38 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <v>0.003078302174736172</v>
+        <v>0.003799195155105634</v>
       </c>
       <c r="E56">
-        <v>0.002843647925433466</v>
+        <v>0.002159304449631656</v>
       </c>
       <c r="F56">
-        <v>1.082518741931435</v>
+        <v>1.759453214554213</v>
       </c>
       <c r="G56">
-        <v>0.279022092101296</v>
+        <v>0.07850056015455678</v>
       </c>
       <c r="H56">
-        <v>1.841548740205015</v>
+        <v>3.671153241129467</v>
       </c>
       <c r="I56">
-        <v>-0.002495145343825462</v>
+        <v>-0.0004329637978294949</v>
       </c>
       <c r="J56">
-        <v>0.008651749693297807</v>
+        <v>0.008031354108040763</v>
       </c>
       <c r="K56">
-        <v>0.09245923833513497</v>
+        <v>0.01332140117327121</v>
       </c>
       <c r="L56">
-        <v>0.06249841959819639</v>
+        <v>0.009558923074221553</v>
       </c>
       <c r="M56">
-        <v>0.06249841959819639</v>
+        <v>0.009558923074221553</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>LSO</t>
         </is>
       </c>
     </row>
@@ -3194,38 +3194,38 @@
         <v>2</v>
       </c>
       <c r="D57">
-        <v>0.002202011927384868</v>
+        <v>-0.00433343331808394</v>
       </c>
       <c r="E57">
-        <v>0.003124622963742512</v>
+        <v>0.002954146959318417</v>
       </c>
       <c r="F57">
-        <v>0.7047288434273723</v>
+        <v>-1.466898356026185</v>
       </c>
       <c r="G57">
-        <v>0.4809789979426914</v>
+        <v>0.1424037078147957</v>
       </c>
       <c r="H57">
-        <v>1.055954195123722</v>
+        <v>2.811941384142198</v>
       </c>
       <c r="I57">
-        <v>-0.003922136546817256</v>
+        <v>-0.01012345496338655</v>
       </c>
       <c r="J57">
-        <v>0.008326160401586994</v>
+        <v>0.001456588327218669</v>
       </c>
       <c r="K57">
-        <v>0.1131434055411664</v>
+        <v>0.04277777142336474</v>
       </c>
       <c r="L57">
-        <v>0.1209572998370792</v>
+        <v>0.03683833519971529</v>
       </c>
       <c r="M57">
-        <v>0.1209572998370792</v>
+        <v>0.03683833519971529</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>LSO</t>
         </is>
       </c>
     </row>
@@ -3244,38 +3244,38 @@
         <v>3</v>
       </c>
       <c r="D58">
-        <v>0.007170556293373637</v>
+        <v>-0.005030307360827164</v>
       </c>
       <c r="E58">
-        <v>0.002198148650085518</v>
+        <v>0.004823217924415846</v>
       </c>
       <c r="F58">
-        <v>3.262088891529091</v>
+        <v>-1.042935948500896</v>
       </c>
       <c r="G58">
-        <v>0.001105944578227758</v>
+        <v>0.296977958859838</v>
       </c>
       <c r="H58">
-        <v>9.820505194495759</v>
+        <v>1.751572233974438</v>
       </c>
       <c r="I58">
-        <v>0.002862264106540684</v>
+        <v>-0.01448364078227025</v>
       </c>
       <c r="J58">
-        <v>0.01147884848020659</v>
+        <v>0.004423026060615925</v>
       </c>
       <c r="K58">
-        <v>0.1421630492589427</v>
+        <v>0.07248475621580654</v>
       </c>
       <c r="L58">
-        <v>0.1778358248290028</v>
+        <v>0.1068883562102403</v>
       </c>
       <c r="M58">
-        <v>0.1778358248290028</v>
+        <v>0.1068883562102403</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>LSO</t>
         </is>
       </c>
     </row>
@@ -3294,38 +3294,38 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>0.002561061679503396</v>
+        <v>0.003078302174736172</v>
       </c>
       <c r="E59">
-        <v>0.004618918548817501</v>
+        <v>0.002843647925433466</v>
       </c>
       <c r="F59">
-        <v>0.5544721459007019</v>
+        <v>1.082518741931435</v>
       </c>
       <c r="G59">
-        <v>0.5792557631798254</v>
+        <v>0.279022092101296</v>
       </c>
       <c r="H59">
-        <v>0.7877276019438478</v>
+        <v>1.841548740205015</v>
       </c>
       <c r="I59">
-        <v>-0.006491852323702916</v>
+        <v>-0.002495145343825462</v>
       </c>
       <c r="J59">
-        <v>0.01161397568270971</v>
+        <v>0.008651749693297807</v>
       </c>
       <c r="K59">
-        <v>0.2060866957949304</v>
+        <v>0.09245923833513497</v>
       </c>
       <c r="L59">
-        <v>0.2269650521895132</v>
+        <v>0.06249841959819639</v>
       </c>
       <c r="M59">
-        <v>0.2269650521895132</v>
+        <v>0.06249841959819639</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>MDG</t>
         </is>
       </c>
     </row>
@@ -3344,38 +3344,38 @@
         <v>2</v>
       </c>
       <c r="D60">
-        <v>0.001827262663056854</v>
+        <v>0.002202011927384868</v>
       </c>
       <c r="E60">
-        <v>0.003758424885310132</v>
+        <v>0.003124622963742512</v>
       </c>
       <c r="F60">
-        <v>0.4861777789410509</v>
+        <v>0.7047288434273723</v>
       </c>
       <c r="G60">
-        <v>0.6268411248075241</v>
+        <v>0.4809789979426914</v>
       </c>
       <c r="H60">
-        <v>0.6738282619026557</v>
+        <v>1.055954195123722</v>
       </c>
       <c r="I60">
-        <v>-0.005539114750750087</v>
+        <v>-0.003922136546817256</v>
       </c>
       <c r="J60">
-        <v>0.009193640076863794</v>
+        <v>0.008326160401586994</v>
       </c>
       <c r="K60">
-        <v>0.1262187133596903</v>
+        <v>0.1131434055411664</v>
       </c>
       <c r="L60">
-        <v>0.1328784857106502</v>
+        <v>0.1209572998370792</v>
       </c>
       <c r="M60">
-        <v>0.1328784857106502</v>
+        <v>0.1209572998370792</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>MDG</t>
         </is>
       </c>
     </row>
@@ -3394,38 +3394,38 @@
         <v>3</v>
       </c>
       <c r="D61">
-        <v>0.0001446805900713578</v>
+        <v>0.007170556293373637</v>
       </c>
       <c r="E61">
-        <v>0.003097077383333497</v>
+        <v>0.002198148650085518</v>
       </c>
       <c r="F61">
-        <v>0.04671520022390683</v>
+        <v>3.262088891529091</v>
       </c>
       <c r="G61">
-        <v>0.9627402155454416</v>
+        <v>0.001105944578227758</v>
       </c>
       <c r="H61">
-        <v>0.05478153908873189</v>
+        <v>9.820505194495759</v>
       </c>
       <c r="I61">
-        <v>-0.005925479538595848</v>
+        <v>0.002862264106540684</v>
       </c>
       <c r="J61">
-        <v>0.006214840718738563</v>
+        <v>0.01147884848020659</v>
       </c>
       <c r="K61">
-        <v>0.1571263601216255</v>
+        <v>0.1421630492589427</v>
       </c>
       <c r="L61">
-        <v>0.1847553444122478</v>
+        <v>0.1778358248290028</v>
       </c>
       <c r="M61">
-        <v>0.1847553444122478</v>
+        <v>0.1778358248290028</v>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>MDG</t>
         </is>
       </c>
     </row>
@@ -3444,38 +3444,38 @@
         <v>1</v>
       </c>
       <c r="D62">
-        <v>0.02273035333115655</v>
+        <v>0.002561061679503396</v>
       </c>
       <c r="E62">
-        <v>0.007675785426919049</v>
+        <v>0.004618918548817501</v>
       </c>
       <c r="F62">
-        <v>2.961306507011126</v>
+        <v>0.5544721459007019</v>
       </c>
       <c r="G62">
-        <v>0.003063369106170583</v>
+        <v>0.5792557631798254</v>
       </c>
       <c r="H62">
-        <v>8.350665076536977</v>
+        <v>0.7877276019438478</v>
       </c>
       <c r="I62">
-        <v>0.007686090341337814</v>
+        <v>-0.006491852323702916</v>
       </c>
       <c r="J62">
-        <v>0.03777461632097528</v>
+        <v>0.01161397568270971</v>
       </c>
       <c r="K62">
-        <v>0.0189601449163312</v>
+        <v>0.2060866957949304</v>
       </c>
       <c r="L62">
-        <v>0.07401248931166052</v>
+        <v>0.2269650521895132</v>
       </c>
       <c r="M62">
-        <v>0.07401248931166052</v>
+        <v>0.2269650521895132</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
@@ -3494,38 +3494,38 @@
         <v>2</v>
       </c>
       <c r="D63">
-        <v>-0.001927319587385885</v>
+        <v>0.001827262663056854</v>
       </c>
       <c r="E63">
-        <v>0.006598236488351551</v>
+        <v>0.003758424885310132</v>
       </c>
       <c r="F63">
-        <v>-0.2920961670271068</v>
+        <v>0.4861777789410509</v>
       </c>
       <c r="G63">
-        <v>0.7702130972302268</v>
+        <v>0.6268411248075241</v>
       </c>
       <c r="H63">
-        <v>0.3766704389707937</v>
+        <v>0.6738282619026557</v>
       </c>
       <c r="I63">
-        <v>-0.01485962546603296</v>
+        <v>-0.005539114750750087</v>
       </c>
       <c r="J63">
-        <v>0.01100498629126119</v>
+        <v>0.009193640076863794</v>
       </c>
       <c r="K63">
-        <v>0.01285734908173139</v>
+        <v>0.1262187133596903</v>
       </c>
       <c r="L63">
-        <v>0.01616856841892218</v>
+        <v>0.1328784857106502</v>
       </c>
       <c r="M63">
-        <v>0.01616856841892218</v>
+        <v>0.1328784857106502</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
@@ -3544,38 +3544,38 @@
         <v>3</v>
       </c>
       <c r="D64">
-        <v>0.003838534363650017</v>
+        <v>0.0001446805900713578</v>
       </c>
       <c r="E64">
-        <v>0.008745429168965525</v>
+        <v>0.003097077383333497</v>
       </c>
       <c r="F64">
-        <v>0.438918924330396</v>
+        <v>0.04671520022390683</v>
       </c>
       <c r="G64">
-        <v>0.6607202838429469</v>
+        <v>0.9627402155454416</v>
       </c>
       <c r="H64">
-        <v>0.5978884593436022</v>
+        <v>0.05478153908873189</v>
       </c>
       <c r="I64">
-        <v>-0.01330219183686846</v>
+        <v>-0.005925479538595848</v>
       </c>
       <c r="J64">
-        <v>0.0209792605641685</v>
+        <v>0.006214840718738563</v>
       </c>
       <c r="K64">
-        <v>0.008682435935288616</v>
+        <v>0.1571263601216255</v>
       </c>
       <c r="L64">
-        <v>-0.005214654600054457</v>
+        <v>0.1847553444122478</v>
       </c>
       <c r="M64">
-        <v>-0.005214654600054457</v>
+        <v>0.1847553444122478</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>MLI</t>
         </is>
       </c>
     </row>
@@ -3594,38 +3594,38 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>-0.002866033986650781</v>
+        <v>0.02273035333115655</v>
       </c>
       <c r="E65">
-        <v>0.007107353017712278</v>
+        <v>0.007675785426919049</v>
       </c>
       <c r="F65">
-        <v>-0.4032491392376768</v>
+        <v>2.961306507011126</v>
       </c>
       <c r="G65">
-        <v>0.6867649535038379</v>
+        <v>0.003063369106170583</v>
       </c>
       <c r="H65">
-        <v>0.542111676246643</v>
+        <v>8.350665076536977</v>
       </c>
       <c r="I65">
-        <v>-0.01679618992677891</v>
+        <v>0.007686090341337814</v>
       </c>
       <c r="J65">
-        <v>0.01106412195347735</v>
+        <v>0.03777461632097528</v>
       </c>
       <c r="K65">
-        <v>0.1266027028114311</v>
+        <v>0.0189601449163312</v>
       </c>
       <c r="L65">
-        <v>0.120178751391427</v>
+        <v>0.07401248931166052</v>
       </c>
       <c r="M65">
-        <v>0.120178751391427</v>
+        <v>0.07401248931166052</v>
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MNG</t>
         </is>
       </c>
     </row>
@@ -3644,38 +3644,38 @@
         <v>2</v>
       </c>
       <c r="D66">
-        <v>-0.005566078332978385</v>
+        <v>-0.001927319587385885</v>
       </c>
       <c r="E66">
-        <v>0.004978974441018675</v>
+        <v>0.006598236488351551</v>
       </c>
       <c r="F66">
-        <v>-1.117916631007969</v>
+        <v>-0.2920961670271068</v>
       </c>
       <c r="G66">
-        <v>0.2636026013435483</v>
+        <v>0.7702130972302268</v>
       </c>
       <c r="H66">
-        <v>1.923563487337608</v>
+        <v>0.3766704389707937</v>
       </c>
       <c r="I66">
-        <v>-0.01532468891732043</v>
+        <v>-0.01485962546603296</v>
       </c>
       <c r="J66">
-        <v>0.004192532251363665</v>
+        <v>0.01100498629126119</v>
       </c>
       <c r="K66">
-        <v>0.2287397640975747</v>
+        <v>0.01285734908173139</v>
       </c>
       <c r="L66">
-        <v>0.1962164704201682</v>
+        <v>0.01616856841892218</v>
       </c>
       <c r="M66">
-        <v>0.1962164704201682</v>
+        <v>0.01616856841892218</v>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MNG</t>
         </is>
       </c>
     </row>
@@ -3694,38 +3694,38 @@
         <v>3</v>
       </c>
       <c r="D67">
-        <v>-0.005135190588590598</v>
+        <v>0.003838534363650017</v>
       </c>
       <c r="E67">
-        <v>0.00534506593153661</v>
+        <v>0.008745429168965525</v>
       </c>
       <c r="F67">
-        <v>-0.9607347513324918</v>
+        <v>0.438918924330396</v>
       </c>
       <c r="G67">
-        <v>0.3366855533248899</v>
+        <v>0.6607202838429469</v>
       </c>
       <c r="H67">
-        <v>1.57052627628695</v>
+        <v>0.5978884593436022</v>
       </c>
       <c r="I67">
-        <v>-0.01561132730939438</v>
+        <v>-0.01330219183686846</v>
       </c>
       <c r="J67">
-        <v>0.005340946132213189</v>
+        <v>0.0209792605641685</v>
       </c>
       <c r="K67">
-        <v>0.1977228270160519</v>
+        <v>0.008682435935288616</v>
       </c>
       <c r="L67">
-        <v>0.1616980992433313</v>
+        <v>-0.005214654600054457</v>
       </c>
       <c r="M67">
-        <v>0.1616980992433313</v>
+        <v>-0.005214654600054457</v>
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MNG</t>
         </is>
       </c>
     </row>
@@ -3744,38 +3744,38 @@
         <v>1</v>
       </c>
       <c r="D68">
-        <v>0.001905208406046368</v>
+        <v>-0.002866033986650781</v>
       </c>
       <c r="E68">
-        <v>0.003352739877502334</v>
+        <v>0.007107353017712278</v>
       </c>
       <c r="F68">
-        <v>0.5682541669369463</v>
+        <v>-0.4032491392376768</v>
       </c>
       <c r="G68">
-        <v>0.5698623957312023</v>
+        <v>0.6867649535038379</v>
       </c>
       <c r="H68">
-        <v>0.8113145001058298</v>
+        <v>0.542111676246643</v>
       </c>
       <c r="I68">
-        <v>-0.004666041003389437</v>
+        <v>-0.01679618992677891</v>
       </c>
       <c r="J68">
-        <v>0.008476457815482173</v>
+        <v>0.01106412195347735</v>
       </c>
       <c r="K68">
-        <v>0.05468501304415441</v>
+        <v>0.1266027028114311</v>
       </c>
       <c r="L68">
-        <v>0.06260292641352744</v>
+        <v>0.120178751391427</v>
       </c>
       <c r="M68">
-        <v>0.06260292641352744</v>
+        <v>0.120178751391427</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MOZ</t>
         </is>
       </c>
     </row>
@@ -3794,38 +3794,38 @@
         <v>2</v>
       </c>
       <c r="D69">
-        <v>-0.01247055273350636</v>
+        <v>-0.005566078332978385</v>
       </c>
       <c r="E69">
-        <v>0.004874157127297904</v>
+        <v>0.004978974441018675</v>
       </c>
       <c r="F69">
-        <v>-2.558504456835121</v>
+        <v>-1.117916631007969</v>
       </c>
       <c r="G69">
-        <v>0.01051234726163804</v>
+        <v>0.2636026013435483</v>
       </c>
       <c r="H69">
-        <v>6.571771350671539</v>
+        <v>1.923563487337608</v>
       </c>
       <c r="I69">
-        <v>-0.02202372515799946</v>
+        <v>-0.01532468891732043</v>
       </c>
       <c r="J69">
-        <v>-0.002917380309013258</v>
+        <v>0.004192532251363665</v>
       </c>
       <c r="K69">
-        <v>0.07618696426486662</v>
+        <v>0.2287397640975747</v>
       </c>
       <c r="L69">
-        <v>0.05542170039281877</v>
+        <v>0.1962164704201682</v>
       </c>
       <c r="M69">
-        <v>0.05542170039281877</v>
+        <v>0.1962164704201682</v>
       </c>
       <c r="N69" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MOZ</t>
         </is>
       </c>
     </row>
@@ -3844,38 +3844,38 @@
         <v>3</v>
       </c>
       <c r="D70">
-        <v>0.001151415917092197</v>
+        <v>-0.005135190588590598</v>
       </c>
       <c r="E70">
-        <v>0.002405546312455508</v>
+        <v>0.00534506593153661</v>
       </c>
       <c r="F70">
-        <v>0.478650488302953</v>
+        <v>-0.9607347513324918</v>
       </c>
       <c r="G70">
-        <v>0.6321872942148575</v>
+        <v>0.3366855533248899</v>
       </c>
       <c r="H70">
-        <v>0.6615760548322643</v>
+        <v>1.57052627628695</v>
       </c>
       <c r="I70">
-        <v>-0.003563368218463734</v>
+        <v>-0.01561132730939438</v>
       </c>
       <c r="J70">
-        <v>0.005866200052648127</v>
+        <v>0.005340946132213189</v>
       </c>
       <c r="K70">
-        <v>0.04258928631860443</v>
+        <v>0.1977228270160519</v>
       </c>
       <c r="L70">
-        <v>0.069678196061429</v>
+        <v>0.1616980992433313</v>
       </c>
       <c r="M70">
-        <v>0.069678196061429</v>
+        <v>0.1616980992433313</v>
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MOZ</t>
         </is>
       </c>
     </row>
@@ -3894,38 +3894,38 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>-0.002396840379245869</v>
+        <v>0.001905208406046368</v>
       </c>
       <c r="E71">
-        <v>0.003193887032895876</v>
+        <v>0.003352739877502334</v>
       </c>
       <c r="F71">
-        <v>-0.7504461975515364</v>
+        <v>0.5682541669369463</v>
       </c>
       <c r="G71">
-        <v>0.4529860161534267</v>
+        <v>0.5698623957312023</v>
       </c>
       <c r="H71">
-        <v>1.142461580460215</v>
+        <v>0.8113145001058298</v>
       </c>
       <c r="I71">
-        <v>-0.008656743934411279</v>
+        <v>-0.004666041003389437</v>
       </c>
       <c r="J71">
-        <v>0.003863063175919541</v>
+        <v>0.008476457815482173</v>
       </c>
       <c r="K71">
-        <v>0.05088090047104436</v>
+        <v>0.05468501304415441</v>
       </c>
       <c r="L71">
-        <v>0.06147841182155651</v>
+        <v>0.06260292641352744</v>
       </c>
       <c r="M71">
-        <v>0.06147841182155651</v>
+        <v>0.06260292641352744</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MRT</t>
         </is>
       </c>
     </row>
@@ -3944,38 +3944,38 @@
         <v>2</v>
       </c>
       <c r="D72">
-        <v>0.001138870844356884</v>
+        <v>-0.01247055273350636</v>
       </c>
       <c r="E72">
-        <v>0.003883770082431141</v>
+        <v>0.004874157127297904</v>
       </c>
       <c r="F72">
-        <v>0.2932384822440313</v>
+        <v>-2.558504456835121</v>
       </c>
       <c r="G72">
-        <v>0.7693398716752481</v>
+        <v>0.01051234726163804</v>
       </c>
       <c r="H72">
-        <v>0.3783070157411756</v>
+        <v>6.571771350671539</v>
       </c>
       <c r="I72">
-        <v>-0.006473178641442307</v>
+        <v>-0.02202372515799946</v>
       </c>
       <c r="J72">
-        <v>0.008750920330156075</v>
+        <v>-0.002917380309013258</v>
       </c>
       <c r="K72">
-        <v>0.1074273614093953</v>
+        <v>0.07618696426486662</v>
       </c>
       <c r="L72">
-        <v>0.1183075303844402</v>
+        <v>0.05542170039281877</v>
       </c>
       <c r="M72">
-        <v>0.1183075303844402</v>
+        <v>0.05542170039281877</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MRT</t>
         </is>
       </c>
     </row>
@@ -3994,38 +3994,38 @@
         <v>3</v>
       </c>
       <c r="D73">
-        <v>-0.00555107896574138</v>
+        <v>0.001151415917092197</v>
       </c>
       <c r="E73">
-        <v>0.001813596092603302</v>
+        <v>0.002405546312455508</v>
       </c>
       <c r="F73">
-        <v>-3.060813258465483</v>
+        <v>0.478650488302953</v>
       </c>
       <c r="G73">
-        <v>0.002207367190108211</v>
+        <v>0.6321872942148575</v>
       </c>
       <c r="H73">
-        <v>8.82345764630646</v>
+        <v>0.6615760548322643</v>
       </c>
       <c r="I73">
-        <v>-0.00910566198974642</v>
+        <v>-0.003563368218463734</v>
       </c>
       <c r="J73">
-        <v>-0.001996495941736341</v>
+        <v>0.005866200052648127</v>
       </c>
       <c r="K73">
-        <v>0.002588510789381805</v>
+        <v>0.04258928631860443</v>
       </c>
       <c r="L73">
-        <v>0.0008518597423645431</v>
+        <v>0.069678196061429</v>
       </c>
       <c r="M73">
-        <v>0.0008518597423645431</v>
+        <v>0.069678196061429</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MRT</t>
         </is>
       </c>
     </row>
@@ -4044,38 +4044,38 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>0.006763736440661227</v>
+        <v>-0.002396840379245869</v>
       </c>
       <c r="E74">
-        <v>0.005067271245848245</v>
+        <v>0.003193887032895876</v>
       </c>
       <c r="F74">
-        <v>1.334788708262449</v>
+        <v>-0.7504461975515364</v>
       </c>
       <c r="G74">
-        <v>0.1819455102088045</v>
+        <v>0.4529860161534267</v>
       </c>
       <c r="H74">
-        <v>2.45842164403431</v>
+        <v>1.142461580460215</v>
       </c>
       <c r="I74">
-        <v>-0.003167932701096741</v>
+        <v>-0.008656743934411279</v>
       </c>
       <c r="J74">
-        <v>0.0166954055824192</v>
+        <v>0.003863063175919541</v>
       </c>
       <c r="K74">
-        <v>0.01206277783755429</v>
+        <v>0.05088090047104436</v>
       </c>
       <c r="L74">
-        <v>0.03519139422484635</v>
+        <v>0.06147841182155651</v>
       </c>
       <c r="M74">
-        <v>0.03519139422484635</v>
+        <v>0.06147841182155651</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>MWI</t>
         </is>
       </c>
     </row>
@@ -4094,38 +4094,38 @@
         <v>2</v>
       </c>
       <c r="D75">
-        <v>-0.01180255391522395</v>
+        <v>0.001138870844356884</v>
       </c>
       <c r="E75">
-        <v>0.00639213042995768</v>
+        <v>0.003883770082431141</v>
       </c>
       <c r="F75">
-        <v>-1.846419444119836</v>
+        <v>0.2932384822440313</v>
       </c>
       <c r="G75">
-        <v>0.0648313260957199</v>
+        <v>0.7693398716752481</v>
       </c>
       <c r="H75">
-        <v>3.94716510687385</v>
+        <v>0.3783070157411756</v>
       </c>
       <c r="I75">
-        <v>-0.02433089934242353</v>
+        <v>-0.006473178641442307</v>
       </c>
       <c r="J75">
-        <v>0.000725791511975632</v>
+        <v>0.008750920330156075</v>
       </c>
       <c r="K75">
-        <v>0.0802745650013999</v>
+        <v>0.1074273614093953</v>
       </c>
       <c r="L75">
-        <v>0.04167814080925503</v>
+        <v>0.1183075303844402</v>
       </c>
       <c r="M75">
-        <v>0.04167814080925503</v>
+        <v>0.1183075303844402</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>MWI</t>
         </is>
       </c>
     </row>
@@ -4144,38 +4144,38 @@
         <v>3</v>
       </c>
       <c r="D76">
-        <v>-0.006787178945823244</v>
+        <v>-0.00555107896574138</v>
       </c>
       <c r="E76">
-        <v>0.004577572309960512</v>
+        <v>0.001813596092603302</v>
       </c>
       <c r="F76">
-        <v>-1.482702726738967</v>
+        <v>-3.060813258465483</v>
       </c>
       <c r="G76">
-        <v>0.138153409862299</v>
+        <v>0.002207367190108211</v>
       </c>
       <c r="H76">
-        <v>2.855656924117929</v>
+        <v>8.82345764630646</v>
       </c>
       <c r="I76">
-        <v>-0.01575905580997367</v>
+        <v>-0.00910566198974642</v>
       </c>
       <c r="J76">
-        <v>0.002184697918327179</v>
+        <v>-0.001996495941736341</v>
       </c>
       <c r="K76">
-        <v>0.001780089748843861</v>
+        <v>0.002588510789381805</v>
       </c>
       <c r="L76">
-        <v>0.04144170694447211</v>
+        <v>0.0008518597423645431</v>
       </c>
       <c r="M76">
-        <v>0.04144170694447211</v>
+        <v>0.0008518597423645431</v>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>MWI</t>
         </is>
       </c>
     </row>
@@ -4194,38 +4194,38 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>0.002438099156149337</v>
+        <v>0.006763736440661227</v>
       </c>
       <c r="E77">
-        <v>0.007959586187020116</v>
+        <v>0.005067271245848245</v>
       </c>
       <c r="F77">
-        <v>0.3063097878285687</v>
+        <v>1.334788708262449</v>
       </c>
       <c r="G77">
-        <v>0.7593687875546895</v>
+        <v>0.1819455102088045</v>
       </c>
       <c r="H77">
-        <v>0.3971273940150178</v>
+        <v>2.45842164403431</v>
       </c>
       <c r="I77">
-        <v>-0.01316240310225258</v>
+        <v>-0.003167932701096741</v>
       </c>
       <c r="J77">
-        <v>0.01803860141455126</v>
+        <v>0.0166954055824192</v>
       </c>
       <c r="K77">
-        <v>0.06668851674079271</v>
+        <v>0.01206277783755429</v>
       </c>
       <c r="L77">
-        <v>0.07369842864598605</v>
+        <v>0.03519139422484635</v>
       </c>
       <c r="M77">
-        <v>0.07369842864598605</v>
+        <v>0.03519139422484635</v>
       </c>
       <c r="N77" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>NAM</t>
         </is>
       </c>
     </row>
@@ -4244,38 +4244,38 @@
         <v>2</v>
       </c>
       <c r="D78">
-        <v>-0.005772636976726205</v>
+        <v>-0.01180255391522395</v>
       </c>
       <c r="E78">
-        <v>0.007456359659683097</v>
+        <v>0.00639213042995768</v>
       </c>
       <c r="F78">
-        <v>-0.7741897172609762</v>
+        <v>-1.846419444119836</v>
       </c>
       <c r="G78">
-        <v>0.4388186081874362</v>
+        <v>0.0648313260957199</v>
       </c>
       <c r="H78">
-        <v>1.188303390088548</v>
+        <v>3.94716510687385</v>
       </c>
       <c r="I78">
-        <v>-0.02038683336548241</v>
+        <v>-0.02433089934242353</v>
       </c>
       <c r="J78">
-        <v>0.008841559412029996</v>
+        <v>0.000725791511975632</v>
       </c>
       <c r="K78">
-        <v>0.05089313123974336</v>
+        <v>0.0802745650013999</v>
       </c>
       <c r="L78">
-        <v>0.06039928765636846</v>
+        <v>0.04167814080925503</v>
       </c>
       <c r="M78">
-        <v>0.06039928765636846</v>
+        <v>0.04167814080925503</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>NAM</t>
         </is>
       </c>
     </row>
@@ -4294,38 +4294,38 @@
         <v>3</v>
       </c>
       <c r="D79">
-        <v>-0.03677593475442562</v>
+        <v>-0.006787178945823244</v>
       </c>
       <c r="E79">
-        <v>0.007955771836107444</v>
+        <v>0.004577572309960512</v>
       </c>
       <c r="F79">
-        <v>-4.622547693929234</v>
+        <v>-1.482702726738967</v>
       </c>
       <c r="G79">
-        <v>3.79055623370493e-06</v>
+        <v>0.138153409862299</v>
       </c>
       <c r="H79">
-        <v>18.00915900147494</v>
+        <v>2.855656924117929</v>
       </c>
       <c r="I79">
-        <v>-0.0523689610224143</v>
+        <v>-0.01575905580997367</v>
       </c>
       <c r="J79">
-        <v>-0.02118290848643693</v>
+        <v>0.002184697918327179</v>
       </c>
       <c r="K79">
-        <v>0.1989535012180347</v>
+        <v>0.001780089748843861</v>
       </c>
       <c r="L79">
-        <v>0.1351323309171344</v>
+        <v>0.04144170694447211</v>
       </c>
       <c r="M79">
-        <v>0.1351323309171344</v>
+        <v>0.04144170694447211</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>NAM</t>
         </is>
       </c>
     </row>
@@ -4344,38 +4344,38 @@
         <v>1</v>
       </c>
       <c r="D80">
-        <v>0.00239464626905771</v>
+        <v>0.002438099156149337</v>
       </c>
       <c r="E80">
-        <v>0.001778015185644529</v>
+        <v>0.007959586187020116</v>
       </c>
       <c r="F80">
-        <v>1.346808670922376</v>
+        <v>0.3063097878285687</v>
       </c>
       <c r="G80">
-        <v>0.1780418613940017</v>
+        <v>0.7593687875546895</v>
       </c>
       <c r="H80">
-        <v>2.489711605801788</v>
+        <v>0.3971273940150178</v>
       </c>
       <c r="I80">
-        <v>-0.001090199458770864</v>
+        <v>-0.01316240310225258</v>
       </c>
       <c r="J80">
-        <v>0.005879491996886284</v>
+        <v>0.01803860141455126</v>
       </c>
       <c r="K80">
-        <v>0.03114370570862111</v>
+        <v>0.06668851674079271</v>
       </c>
       <c r="L80">
-        <v>0.03176454572017803</v>
+        <v>0.07369842864598605</v>
       </c>
       <c r="M80">
-        <v>0.03176454572017803</v>
+        <v>0.07369842864598605</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>NER</t>
         </is>
       </c>
     </row>
@@ -4394,38 +4394,38 @@
         <v>2</v>
       </c>
       <c r="D81">
-        <v>0.007862258417395289</v>
+        <v>-0.005772636976726205</v>
       </c>
       <c r="E81">
-        <v>0.004472145464540132</v>
+        <v>0.007456359659683097</v>
       </c>
       <c r="F81">
-        <v>1.758050689481264</v>
+        <v>-0.7741897172609762</v>
       </c>
       <c r="G81">
-        <v>0.07873888487589245</v>
+        <v>0.4388186081874362</v>
       </c>
       <c r="H81">
-        <v>3.666779909020366</v>
+        <v>1.188303390088548</v>
       </c>
       <c r="I81">
-        <v>-0.0009029856267275174</v>
+        <v>-0.02038683336548241</v>
       </c>
       <c r="J81">
-        <v>0.0166275024615181</v>
+        <v>0.008841559412029996</v>
       </c>
       <c r="K81">
-        <v>0.05356747227119768</v>
+        <v>0.05089313123974336</v>
       </c>
       <c r="L81">
-        <v>0.04699950053141533</v>
+        <v>0.06039928765636846</v>
       </c>
       <c r="M81">
-        <v>0.04699950053141533</v>
+        <v>0.06039928765636846</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>NER</t>
         </is>
       </c>
     </row>
@@ -4444,38 +4444,38 @@
         <v>3</v>
       </c>
       <c r="D82">
-        <v>0.00261815694396826</v>
+        <v>-0.03677593475442562</v>
       </c>
       <c r="E82">
-        <v>0.002590398511498371</v>
+        <v>0.007955771836107444</v>
       </c>
       <c r="F82">
-        <v>1.010715892688586</v>
+        <v>-4.622547693929234</v>
       </c>
       <c r="G82">
-        <v>0.312152428281301</v>
+        <v>3.79055623370493E-06</v>
       </c>
       <c r="H82">
-        <v>1.679677406104765</v>
+        <v>18.00915900147494</v>
       </c>
       <c r="I82">
-        <v>-0.002458930844174712</v>
+        <v>-0.0523689610224143</v>
       </c>
       <c r="J82">
-        <v>0.007695244732111232</v>
+        <v>-0.02118290848643693</v>
       </c>
       <c r="K82">
-        <v>0.04700646626288425</v>
+        <v>0.1989535012180347</v>
       </c>
       <c r="L82">
-        <v>0.04814472803151331</v>
+        <v>0.1351323309171344</v>
       </c>
       <c r="M82">
-        <v>0.04814472803151331</v>
+        <v>0.1351323309171344</v>
       </c>
       <c r="N82" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>NER</t>
         </is>
       </c>
     </row>
@@ -4494,38 +4494,38 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>-0.01436691230441486</v>
+        <v>0.00239464626905771</v>
       </c>
       <c r="E83">
-        <v>24.31769704190534</v>
+        <v>0.001778015185644529</v>
       </c>
       <c r="F83">
-        <v>-0.0005908006946404979</v>
+        <v>1.346808670922376</v>
       </c>
       <c r="G83">
-        <v>0.9995286092746576</v>
+        <v>0.1780418613940017</v>
       </c>
       <c r="H83">
-        <v>0.000680233402230138</v>
+        <v>2.489711605801788</v>
       </c>
       <c r="I83">
-        <v>-47.67617730139509</v>
+        <v>-0.001090199458770864</v>
       </c>
       <c r="J83">
-        <v>47.64744347678626</v>
+        <v>0.005879491996886284</v>
       </c>
       <c r="K83">
-        <v>0.03933632053153245</v>
+        <v>0.03114370570862111</v>
       </c>
       <c r="L83">
-        <v>0.04738057239019138</v>
+        <v>0.03176454572017803</v>
       </c>
       <c r="M83">
-        <v>0.04738057239019138</v>
+        <v>0.03176454572017803</v>
       </c>
       <c r="N83" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>PAK</t>
         </is>
       </c>
     </row>
@@ -4544,38 +4544,38 @@
         <v>2</v>
       </c>
       <c r="D84">
-        <v>0.03674942260282664</v>
+        <v>0.007862258417395289</v>
       </c>
       <c r="E84">
-        <v>24.27640997481758</v>
+        <v>0.004472145464540132</v>
       </c>
       <c r="F84">
-        <v>0.001513791480739844</v>
+        <v>1.758050689481264</v>
       </c>
       <c r="G84">
-        <v>0.9987921696105464</v>
+        <v>0.07873888487589245</v>
       </c>
       <c r="H84">
-        <v>0.001743584102129956</v>
+        <v>3.666779909020366</v>
       </c>
       <c r="I84">
-        <v>-47.54413980196855</v>
+        <v>-0.0009029856267275174</v>
       </c>
       <c r="J84">
-        <v>47.6176386471742</v>
+        <v>0.0166275024615181</v>
       </c>
       <c r="K84">
-        <v>0.06722572215159997</v>
+        <v>0.05356747227119768</v>
       </c>
       <c r="L84">
-        <v>0.1431415555585359</v>
+        <v>0.04699950053141533</v>
       </c>
       <c r="M84">
-        <v>0.1431415555585359</v>
+        <v>0.04699950053141533</v>
       </c>
       <c r="N84" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>PAK</t>
         </is>
       </c>
     </row>
@@ -4594,38 +4594,38 @@
         <v>3</v>
       </c>
       <c r="D85">
-        <v>-0.01511737901325412</v>
+        <v>0.00261815694396826</v>
       </c>
       <c r="E85">
-        <v>0.005199396717565179</v>
+        <v>0.002590398511498371</v>
       </c>
       <c r="F85">
-        <v>-2.907525590840743</v>
+        <v>1.010715892688586</v>
       </c>
       <c r="G85">
-        <v>0.003643005356848833</v>
+        <v>0.312152428281301</v>
       </c>
       <c r="H85">
-        <v>8.100655168172233</v>
+        <v>1.679677406104765</v>
       </c>
       <c r="I85">
-        <v>-0.02530800932101764</v>
+        <v>-0.002458930844174712</v>
       </c>
       <c r="J85">
-        <v>-0.004926748705490595</v>
+        <v>0.007695244732111232</v>
       </c>
       <c r="K85">
-        <v>0.07865307360392433</v>
+        <v>0.04700646626288425</v>
       </c>
       <c r="L85">
-        <v>0.03472516754669389</v>
+        <v>0.04814472803151331</v>
       </c>
       <c r="M85">
-        <v>0.03472516754669389</v>
+        <v>0.04814472803151331</v>
       </c>
       <c r="N85" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>PAK</t>
         </is>
       </c>
     </row>
@@ -4803,7 +4803,7 @@
         <v>-5.263577529801737</v>
       </c>
       <c r="G89">
-        <v>1.412788895292333e-07</v>
+        <v>1.412788895292333E-07</v>
       </c>
       <c r="H89">
         <v>22.75495075584188</v>
@@ -4903,7 +4903,7 @@
         <v>11.92114901745907</v>
       </c>
       <c r="G91">
-        <v>9.183319984439866e-33</v>
+        <v>9.183319984439866E-33</v>
       </c>
       <c r="H91">
         <v>106.4246113154234</v>
@@ -5303,7 +5303,7 @@
         <v>4.546788159039416</v>
       </c>
       <c r="G99">
-        <v>5.447077478044825e-06</v>
+        <v>5.447077478044825E-06</v>
       </c>
       <c r="H99">
         <v>17.48608618141953</v>
@@ -6003,7 +6003,7 @@
         <v>8.879031140952355</v>
       </c>
       <c r="G113">
-        <v>6.744522620647169e-19</v>
+        <v>6.744522620647169E-19</v>
       </c>
       <c r="H113">
         <v>60.3629174704644</v>
@@ -6318,10 +6318,10 @@
         <v>0.01058574794062437</v>
       </c>
       <c r="L119">
-        <v>-4.315658594378213e-11</v>
+        <v>-4.315658594378213E-11</v>
       </c>
       <c r="M119">
-        <v>-4.315658594378213e-11</v>
+        <v>-4.315658594378213E-11</v>
       </c>
       <c r="N119" t="inlineStr">
         <is>
@@ -6418,10 +6418,10 @@
         <v>0.01197814389179006</v>
       </c>
       <c r="L121">
-        <v>-4.677710649381162e-11</v>
+        <v>-4.677710649381162E-11</v>
       </c>
       <c r="M121">
-        <v>-4.677710649381162e-11</v>
+        <v>-4.677710649381162E-11</v>
       </c>
       <c r="N121" t="inlineStr">
         <is>
